--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/spring2021_website/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95CD286-1BE2-8D49-8725-313A7502645F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12242E-9FD2-8748-B97A-F2FD7DA2B026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="268">
   <si>
     <t>Day</t>
   </si>
@@ -514,6 +503,12 @@
     <t>https://eurl.io/#KijTiY1Sa</t>
   </si>
   <si>
+    <t>assignments/assignment1/01starter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages. </t>
+  </si>
+  <si>
     <t>Chapter 1: The Machine Learning Landscape</t>
   </si>
   <si>
@@ -682,12 +677,18 @@
     <t>Midterm Exam</t>
   </si>
   <si>
+    <t>This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas)</t>
+  </si>
+  <si>
     <t xml:space="preserve">This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. </t>
   </si>
   <si>
     <t>This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling. Continued introduction to coding includes Numpy and Pandas</t>
   </si>
   <si>
+    <t>assignments/assignment2/hm</t>
+  </si>
+  <si>
     <t>Video Recording of Class Sec 01</t>
   </si>
   <si>
@@ -808,6 +809,12 @@
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=6deccb8602db4a1984a7a0e727dffbbc</t>
   </si>
   <si>
+    <t xml:space="preserve">This has us create a few different functions and our first simple model. </t>
+  </si>
+  <si>
+    <t>assignments/assignment3/hm</t>
+  </si>
+  <si>
     <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=84fd624c95554f8489dfc64d260245df</t>
   </si>
   <si>
@@ -817,217 +824,13 @@
     <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e210b8b46f824822b383e452c26ff3af</t>
   </si>
   <si>
+    <t>Some exercises with visualization and web scraping.</t>
+  </si>
+  <si>
+    <t>assignments/assignment4/hm</t>
+  </si>
+  <si>
     <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/6bd4d10ef7a443838e020218e96144f5</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/d2dd941f6ef44f0a8ff1ca2d30717b76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/ef3e70bde3e0465181c0ba73d2e050af </t>
-  </si>
-  <si>
-    <t>Overview of Classification</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/4d00a7cff4c5473f86cd84fd29bf10bd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regression models similarly a a major type of machine learning application.  In this </t>
-  </si>
-  <si>
-    <t>Lab/homework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsupervised models are frequently used to subset data into subpoluations or to generate features.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midterm. Available 8:00 AM EST. Due Midnight. </t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/9455c4cb103b40e09cf371bbc0eac818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time series and panel data is a bit different and requires a different approach.  Here we cover some of the basics. </t>
-  </si>
-  <si>
-    <t>The goal of this class is to investigate basic concepts surrounding text mining.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image data is different and deep learning has transformed the ability of machines to process image data. In this lecture we will get an overview of image processing and deep learning techniques. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal is to get you familiar with Spark and the general big data infrastructure. </t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/playback/8b8bcba58cc847818344bb2da2c201eb</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/1d438f22abef4621bd608be72c1e8a22</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/fa6644e03cd943fdb679f8f604d1264b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rensselaer.webex.com/rensselaer/ldr.php?RCID=786db1209b1742b9b8e18c37ff97f4a7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rensselaer.webex.com/rensselaer/ldr.php?RCID=85bc602596d24edd9373252c2496c457 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/13bf8548a1dc426583de14caf901d2ba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/96460dff323947a39ce40b5f6243d46a </t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/70be2c384357437a96b09a704b9e97ac</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/4837a7850b704b70b62322acc01f06eb</t>
-  </si>
-  <si>
-    <t>Video Recording of Class Sec 02 - Part 2</t>
-  </si>
-  <si>
-    <t>Video Recording of Class Sec 02 - Part 1</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/d4da719eff124a678a91a3dc629eab05</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=98b3f8266fca4b738f5a589c9f65c14c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rensselaer.webex.com/rensselaer/ldr.php?RCID=37ea34ea2bb047b3a776d864570768f6 </t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/c5c2dcd89d8b4411b57952bdcaa581a8</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/6302a1fd9e504bbbbdc85640b7fd1134</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/1051419ff8d84cd7aa83f175650d7b07</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/ee3336832ba641129cf313bc739f4b11</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=873e4c3bea174f2d8b9326443b09b9f3</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e7a9b73ba41042f59399c1cdd27d3362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please aim for a 5-7 min presentation covering key insights from EDA and modeling, with a focus on modeling. </t>
-  </si>
-  <si>
-    <t>Advanced tools for model search</t>
-  </si>
-  <si>
-    <t>The final exam will be comprehensive. Tuesday, 12/15 11:30-2:30</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/playback/243882573d9e42bb8429c2794430c0f2</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/f79bb1f7615f4a61a36fe663dd71b504</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/fce837e8a5994ab8895f27ca7a78672f</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/d9a25c7aa7944fc083c4a5d24d6ec650/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/09207f86b4cc45738d9a6e13e0b76a53/playback</t>
-  </si>
-  <si>
-    <t>R and Machine Learning</t>
-  </si>
-  <si>
-    <t>Introduction to Deep Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep learning with Tensorflow </t>
-  </si>
-  <si>
-    <t>NLP and Deep Learning</t>
-  </si>
-  <si>
-    <t>NLP Data and Deep Learniing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open project questions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal is to try to answer some of the questions you have seen that you weren't sure about. </t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/13a6e5016cfe492eb7fbe12a14a5abbc/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/0d54fe63ea3a45788579d145dc72404a/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/07b0859618af4f8e848e6dc0360fcac8/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/815e6d995c344d0f8fb2d4f697fec532/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/741cc649873d47e5b5c608a86c93160c/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/72e55bad294b4b87a4f7b0455cc078a5/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/abf741c1d2414b18b087a5065b3023e5/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/4db99a8abae84352af66a3512acbd991/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/d0b289dccf8f44e88d3821ea600b1ba1/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/9225b15e90b14de5b74c52abcd17b4ab/playback</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/c/riiid-test-answer-prediction/</t>
-  </si>
-  <si>
-    <t>Riid! Kaggle</t>
-  </si>
-  <si>
-    <t>https://rpi.box.com/s/w1ml3vmfi83k1nrznf4w6mrehonup1g9</t>
-  </si>
-  <si>
-    <t>Riid! Kaggle - PDF Notebook Output</t>
-  </si>
-  <si>
-    <t>Riid! Writeup</t>
-  </si>
-  <si>
-    <t>Riidl Updated Forkable Notebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://rpi.box.com/s/8dbsv2y14hlikwxd91g1qhij5dw6u482 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kaggle.com/analyticsdojo/tabnet-fastai-linear-lgb-ensemble-starter </t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/e08d40341b0e4214b626d1c2f82212ab/playback</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/500fc42a5d0a4ac2b8335ab0ae6074c4/playback</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +842,7 @@
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1098,6 +901,12 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
     <font>
@@ -1183,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1234,6 +1043,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1243,21 +1053,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,7 +1401,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="11"/>
-    <col min="3" max="4" width="10.6640625" style="26" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="27" customWidth="1"/>
     <col min="5" max="5" width="61.83203125" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" customWidth="1"/>
@@ -1612,7 +1425,7 @@
       <c r="B4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -1633,7 +1446,7 @@
       <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="27">
         <v>44074</v>
       </c>
       <c r="D5" s="16" t="str">
@@ -1654,7 +1467,7 @@
       <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>44077</v>
       </c>
       <c r="D6" s="16" t="str">
@@ -1672,7 +1485,7 @@
       <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="27">
         <v>44081</v>
       </c>
       <c r="D7" s="16" t="str">
@@ -1693,7 +1506,7 @@
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="27">
         <v>44082</v>
       </c>
       <c r="D8" s="16" t="str">
@@ -1715,7 +1528,7 @@
         <f t="shared" ref="B9:B29" si="1">B8+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="27">
         <v>44084</v>
       </c>
       <c r="D9" s="16" t="str">
@@ -1737,7 +1550,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <v>44088</v>
       </c>
       <c r="D10" s="16" t="str">
@@ -1759,7 +1572,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>44091</v>
       </c>
       <c r="D11" s="16" t="str">
@@ -1781,7 +1594,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="27">
         <v>44095</v>
       </c>
       <c r="D12" s="16" t="str">
@@ -1803,7 +1616,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="27">
         <v>44098</v>
       </c>
       <c r="D13" s="16" t="str">
@@ -1825,7 +1638,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="27">
         <v>44102</v>
       </c>
       <c r="D14" s="16" t="str">
@@ -1847,7 +1660,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="27">
         <v>44105</v>
       </c>
       <c r="D15" s="16" t="str">
@@ -1869,7 +1682,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="27">
         <v>44109</v>
       </c>
       <c r="D16" s="16" t="str">
@@ -1891,7 +1704,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="27">
         <v>44112</v>
       </c>
       <c r="D17" s="16" t="str">
@@ -1909,7 +1722,7 @@
       <c r="A18" s="11">
         <v>7</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="27">
         <v>44116</v>
       </c>
       <c r="D18" s="16" t="str">
@@ -1930,7 +1743,7 @@
       <c r="B19" s="11">
         <v>13</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="27">
         <v>44119</v>
       </c>
       <c r="D19" s="16" t="str">
@@ -1952,7 +1765,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="27">
         <v>44123</v>
       </c>
       <c r="D20" s="16" t="str">
@@ -1974,7 +1787,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="27">
         <v>44126</v>
       </c>
       <c r="D21" s="16" t="str">
@@ -1996,7 +1809,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="27">
         <v>44130</v>
       </c>
       <c r="D22" s="16" t="str">
@@ -2018,7 +1831,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="27">
         <v>44133</v>
       </c>
       <c r="D23" s="16" t="str">
@@ -2040,7 +1853,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="27">
         <v>44137</v>
       </c>
       <c r="D24" s="16" t="str">
@@ -2062,7 +1875,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="27">
         <v>44140</v>
       </c>
       <c r="D25" s="16" t="str">
@@ -2084,7 +1897,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="27">
         <v>44144</v>
       </c>
       <c r="D26" s="16" t="str">
@@ -2106,7 +1919,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="27">
         <v>44147</v>
       </c>
       <c r="D27" s="16" t="str">
@@ -2128,7 +1941,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="27">
         <v>44151</v>
       </c>
       <c r="D28" s="16" t="str">
@@ -2150,7 +1963,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="27">
         <v>44154</v>
       </c>
       <c r="D29" s="16" t="str">
@@ -2168,7 +1981,7 @@
       <c r="A30" s="11">
         <v>13</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="27">
         <v>44158</v>
       </c>
       <c r="D30" s="16" t="str">
@@ -2189,7 +2002,7 @@
       <c r="B31" s="11">
         <v>24</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="27">
         <v>44161</v>
       </c>
       <c r="D31" s="16" t="str">
@@ -2210,7 +2023,7 @@
       <c r="B32" s="11">
         <v>25</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="27">
         <v>44165</v>
       </c>
       <c r="D32" s="16" t="str">
@@ -2232,7 +2045,7 @@
         <f t="shared" ref="B33:B35" si="2">B32+1</f>
         <v>26</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="27">
         <v>44168</v>
       </c>
       <c r="D33" s="16" t="str">
@@ -2254,7 +2067,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="27">
         <v>44172</v>
       </c>
       <c r="D34" s="16" t="str">
@@ -2276,7 +2089,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="27">
         <v>44175</v>
       </c>
       <c r="D35" s="16" t="str">
@@ -2292,10 +2105,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="11"/>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="11" t="s">
         <v>144</v>
       </c>
@@ -2597,7 +2410,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2617,7 +2430,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="19">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2631,14 +2444,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O910"/>
+  <dimension ref="A1:V921"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -2650,16 +2463,17 @@
     <col min="5" max="5" width="32.1640625" style="17" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:22" s="12" customFormat="1" ht="19">
       <c r="A1" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -2671,18 +2485,19 @@
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>44074</v>
       </c>
       <c r="D2" s="16" t="str">
@@ -2699,14 +2514,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.5" customHeight="1">
+    <row r="3" spans="1:22" ht="15.5" customHeight="1">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="27">
         <v>44077</v>
       </c>
       <c r="D3" s="16" t="str">
@@ -2716,19 +2531,19 @@
       <c r="E3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>214</v>
+      <c r="F3" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:22">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="26">
+      <c r="C4" s="27">
         <v>44081</v>
       </c>
       <c r="D4" s="16" t="str">
@@ -2743,14 +2558,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="34">
+    <row r="5" spans="1:22" ht="34">
       <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="27">
         <v>44082</v>
       </c>
       <c r="D5" s="16" t="str">
@@ -2760,14 +2575,14 @@
       <c r="E5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>215</v>
+      <c r="F5" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:22">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2775,7 +2590,7 @@
         <f t="shared" ref="B6:B26" si="1">B5+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>44084</v>
       </c>
       <c r="D6" s="16" t="str">
@@ -2786,13 +2601,13 @@
         <v>80</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:22">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2800,7 +2615,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="27">
         <v>44088</v>
       </c>
       <c r="D7" s="16" t="str">
@@ -2811,13 +2626,13 @@
         <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="68">
+    <row r="8" spans="1:22" ht="68">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -2825,7 +2640,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="27">
         <v>44091</v>
       </c>
       <c r="D8" s="16" t="str">
@@ -2836,13 +2651,13 @@
         <v>82</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="68">
+    <row r="9" spans="1:22" ht="68">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -2850,7 +2665,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="27">
         <v>44095</v>
       </c>
       <c r="D9" s="16" t="str">
@@ -2861,13 +2676,13 @@
         <v>83</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="51">
+    <row r="10" spans="1:22" ht="51">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -2875,7 +2690,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <v>44098</v>
       </c>
       <c r="D10" s="16" t="str">
@@ -2885,8 +2700,8 @@
       <c r="E10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>230</v>
+      <c r="F10" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -2899,8 +2714,15 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" ht="51">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" ht="51">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -2908,7 +2730,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>44102</v>
       </c>
       <c r="D11" s="16" t="str">
@@ -2916,10 +2738,10 @@
         <v>Mon</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>230</v>
+        <v>84</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -2932,8 +2754,15 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" ht="51">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="11">
         <v>5</v>
       </c>
@@ -2941,7 +2770,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="27">
         <v>44105</v>
       </c>
       <c r="D12" s="16" t="str">
@@ -2949,13 +2778,13 @@
         <v>Thu</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>230</v>
+        <v>109</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2965,8 +2794,15 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" ht="17">
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="11">
         <v>6</v>
       </c>
@@ -2974,7 +2810,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="27">
         <v>44109</v>
       </c>
       <c r="D13" s="16" t="str">
@@ -2984,11 +2820,11 @@
       <c r="E13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>264</v>
+      <c r="F13" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2998,8 +2834,15 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" ht="17">
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -3007,7 +2850,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="27">
         <v>44112</v>
       </c>
       <c r="D14" s="16" t="str">
@@ -3017,11 +2860,11 @@
       <c r="E14" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>265</v>
+      <c r="F14" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -3031,13 +2874,20 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="11">
         <v>7</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="26">
+      <c r="C15" s="27">
         <v>44116</v>
       </c>
       <c r="D15" s="16" t="str">
@@ -3047,9 +2897,11 @@
       <c r="E15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -3059,15 +2911,22 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" ht="34">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="11">
         <v>7</v>
       </c>
       <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="27">
         <v>44119</v>
       </c>
       <c r="D16" s="16" t="str">
@@ -3077,11 +2936,11 @@
       <c r="E16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>266</v>
+      <c r="F16" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -3091,8 +2950,15 @@
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="11">
         <v>8</v>
       </c>
@@ -3100,7 +2966,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="27">
         <v>44123</v>
       </c>
       <c r="D17" s="16" t="str">
@@ -3108,13 +2974,13 @@
         <v>Mon</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="G17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -3124,8 +2990,15 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15" ht="34">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="11">
         <v>8</v>
       </c>
@@ -3133,7 +3006,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="27">
         <v>44126</v>
       </c>
       <c r="D18" s="16" t="str">
@@ -3143,11 +3016,11 @@
       <c r="E18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>269</v>
+      <c r="F18" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -3157,8 +3030,15 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" ht="34">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="11">
         <v>9</v>
       </c>
@@ -3166,7 +3046,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="27">
         <v>44130</v>
       </c>
       <c r="D19" s="16" t="str">
@@ -3176,11 +3056,11 @@
       <c r="E19" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>269</v>
+      <c r="F19" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -3190,8 +3070,15 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" ht="17">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="11">
         <v>9</v>
       </c>
@@ -3199,7 +3086,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="27">
         <v>44133</v>
       </c>
       <c r="D20" s="16" t="str">
@@ -3209,11 +3096,11 @@
       <c r="E20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>270</v>
+      <c r="F20" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -3223,8 +3110,15 @@
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" ht="17">
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="11">
         <v>10</v>
       </c>
@@ -3232,7 +3126,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="27">
         <v>44137</v>
       </c>
       <c r="D21" s="16" t="str">
@@ -3242,11 +3136,11 @@
       <c r="E21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>270</v>
+      <c r="F21" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -3256,8 +3150,15 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" ht="17">
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="11">
         <v>10</v>
       </c>
@@ -3265,7 +3166,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="27">
         <v>44140</v>
       </c>
       <c r="D22" s="16" t="str">
@@ -3273,13 +3174,13 @@
         <v>Thu</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>304</v>
+        <v>113</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -3289,8 +3190,15 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" ht="17">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="11">
         <v>11</v>
       </c>
@@ -3298,7 +3206,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="27">
         <v>44144</v>
       </c>
       <c r="D23" s="16" t="str">
@@ -3306,13 +3214,13 @@
         <v>Mon</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>304</v>
+        <v>113</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3322,8 +3230,15 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" ht="17">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="11">
         <v>11</v>
       </c>
@@ -3331,7 +3246,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="27">
         <v>44147</v>
       </c>
       <c r="D24" s="16" t="str">
@@ -3339,13 +3254,13 @@
         <v>Thu</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>304</v>
+        <v>86</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -3355,8 +3270,15 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" ht="51">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="11">
         <v>12</v>
       </c>
@@ -3364,7 +3286,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="27">
         <v>44151</v>
       </c>
       <c r="D25" s="16" t="str">
@@ -3374,11 +3296,11 @@
       <c r="E25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>271</v>
+      <c r="F25" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -3388,8 +3310,15 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" ht="17">
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="11">
         <v>12</v>
       </c>
@@ -3397,21 +3326,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="27">
         <v>44154</v>
       </c>
       <c r="D26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>306</v>
+      <c r="E26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -3421,29 +3350,34 @@
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" ht="17">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="11">
         <v>13</v>
       </c>
-      <c r="B27" s="11">
-        <v>24</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="B27" s="11"/>
+      <c r="C27" s="27">
         <v>44158</v>
       </c>
       <c r="D27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>272</v>
+      <c r="E27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -3453,27 +3387,36 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="11">
         <v>13</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="26">
+      <c r="B28" s="11">
+        <v>24</v>
+      </c>
+      <c r="C28" s="27">
         <v>44161</v>
       </c>
       <c r="D28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>114</v>
+      <c r="E28" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="G28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -3483,15 +3426,22 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" ht="17">
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="11">
         <v>14</v>
       </c>
       <c r="B29" s="11">
         <v>25</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="27">
         <v>44165</v>
       </c>
       <c r="D29" s="16" t="str">
@@ -3501,11 +3451,11 @@
       <c r="E29" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>272</v>
+      <c r="F29" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -3515,8 +3465,15 @@
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" ht="34">
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="11">
         <v>14</v>
       </c>
@@ -3524,7 +3481,7 @@
         <f t="shared" ref="B30:B32" si="2">B29+1</f>
         <v>26</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="27">
         <v>44168</v>
       </c>
       <c r="D30" s="16" t="str">
@@ -3532,13 +3489,13 @@
         <v>Thu</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>308</v>
+        <v>103</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -3548,8 +3505,15 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="11">
         <v>15</v>
       </c>
@@ -3557,7 +3521,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="27">
         <v>44172</v>
       </c>
       <c r="D31" s="16" t="str">
@@ -3568,10 +3532,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="G31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -3581,8 +3545,15 @@
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="11">
         <v>15</v>
       </c>
@@ -3590,7 +3561,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="27">
         <v>44175</v>
       </c>
       <c r="D32" s="16" t="str">
@@ -3601,10 +3572,10 @@
         <v>115</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="G32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -3614,28 +3585,31 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="11">
         <v>17</v>
       </c>
       <c r="B33" s="11">
         <v>29</v>
       </c>
-      <c r="C33" s="27">
-        <v>44180</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>296</v>
-      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="11" t="s">
         <v>144</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>295</v>
+        <v>143</v>
       </c>
       <c r="G33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3645,78 +3619,85 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="D34" s="20"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="D35" s="20"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="D36" s="20"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:22">
       <c r="D37" s="20"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:22">
       <c r="D38" s="20"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:22">
       <c r="D39" s="20"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:22">
       <c r="D40" s="20"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:22">
       <c r="D41" s="20"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:22">
       <c r="D42" s="20"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:22">
       <c r="D43" s="20"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:22">
       <c r="D44" s="20"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:22">
       <c r="D45" s="20"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:22">
       <c r="D46" s="20"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:22">
       <c r="D47" s="20"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:22">
       <c r="D48" s="20"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -8030,6 +8011,61 @@
       <c r="D910" s="20"/>
       <c r="E910" s="23"/>
       <c r="F910" s="23"/>
+    </row>
+    <row r="911" spans="4:6">
+      <c r="D911" s="20"/>
+      <c r="E911" s="23"/>
+      <c r="F911" s="23"/>
+    </row>
+    <row r="912" spans="4:6">
+      <c r="D912" s="20"/>
+      <c r="E912" s="23"/>
+      <c r="F912" s="23"/>
+    </row>
+    <row r="913" spans="4:6">
+      <c r="D913" s="20"/>
+      <c r="E913" s="23"/>
+      <c r="F913" s="23"/>
+    </row>
+    <row r="914" spans="4:6">
+      <c r="D914" s="20"/>
+      <c r="E914" s="23"/>
+      <c r="F914" s="23"/>
+    </row>
+    <row r="915" spans="4:6">
+      <c r="D915" s="20"/>
+      <c r="E915" s="23"/>
+      <c r="F915" s="23"/>
+    </row>
+    <row r="916" spans="4:6">
+      <c r="D916" s="20"/>
+      <c r="E916" s="23"/>
+      <c r="F916" s="23"/>
+    </row>
+    <row r="917" spans="4:6">
+      <c r="D917" s="20"/>
+      <c r="E917" s="23"/>
+      <c r="F917" s="23"/>
+    </row>
+    <row r="918" spans="4:6">
+      <c r="D918" s="20"/>
+      <c r="E918" s="23"/>
+      <c r="F918" s="23"/>
+    </row>
+    <row r="919" spans="4:6">
+      <c r="D919" s="20"/>
+      <c r="E919" s="23"/>
+      <c r="F919" s="23"/>
+    </row>
+    <row r="920" spans="4:6">
+      <c r="D920" s="20"/>
+      <c r="E920" s="23"/>
+      <c r="F920" s="23"/>
+    </row>
+    <row r="921" spans="4:6">
+      <c r="D921" s="20"/>
+      <c r="E921" s="23"/>
+      <c r="F921" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8046,9 +8082,9 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8082,7 +8118,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -8119,304 +8155,304 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="31">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="31">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="31">
+      <c r="A8" s="33">
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="31">
+      <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="31">
+      <c r="A10" s="33">
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="31">
+      <c r="A11" s="33">
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="31">
+      <c r="A12" s="33">
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="31">
+      <c r="A13" s="33">
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="31">
+      <c r="A14" s="33">
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="31">
+      <c r="A15" s="33">
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="31">
-        <v>9</v>
+      <c r="A16" s="33">
+        <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17">
-      <c r="A17" s="31">
+      <c r="A17" s="33">
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="31">
+      <c r="A18" s="33">
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="31">
+      <c r="A19" s="33">
         <v>10</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>192</v>
+      <c r="B19" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="31">
+      <c r="A20" s="33">
         <v>12</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>194</v>
+      <c r="B20" s="34" t="s">
+        <v>196</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31">
+      <c r="A21" s="33">
         <v>14</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>195</v>
+      <c r="B21" s="34" t="s">
+        <v>197</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="31">
+      <c r="A22" s="33">
         <v>16</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>196</v>
+      <c r="B22" s="34" t="s">
+        <v>198</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="31">
+      <c r="A23" s="33">
         <v>17</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>197</v>
+      <c r="B23" s="34" t="s">
+        <v>199</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="31">
+      <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>198</v>
+      <c r="B24" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="31">
+      <c r="A25" s="33">
         <v>21</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>199</v>
+      <c r="B25" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31">
+      <c r="A26" s="33">
         <v>22</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>200</v>
+      <c r="B26" s="34" t="s">
+        <v>202</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8454,11 +8490,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87:D88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8487,10 +8523,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
@@ -8501,10 +8537,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>3</v>
@@ -8515,10 +8551,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -8529,10 +8565,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
@@ -8543,10 +8579,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>3</v>
@@ -8560,7 +8596,7 @@
         <v>97</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
@@ -8574,7 +8610,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
@@ -8585,10 +8621,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>3</v>
@@ -8599,10 +8635,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>3</v>
@@ -8613,10 +8649,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>3</v>
@@ -8627,10 +8663,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>3</v>
@@ -8641,10 +8677,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>96</v>
@@ -8655,10 +8691,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>96</v>
@@ -8669,10 +8705,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
@@ -8683,10 +8719,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
@@ -8697,10 +8733,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>3</v>
@@ -8711,10 +8747,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>3</v>
@@ -8725,7 +8761,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>152</v>
@@ -8739,10 +8775,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>96</v>
@@ -8753,10 +8789,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>96</v>
@@ -8767,10 +8803,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>96</v>
@@ -8780,11 +8816,11 @@
       <c r="A23" s="14">
         <v>4</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>96</v>
@@ -8794,11 +8830,11 @@
       <c r="A24" s="14">
         <v>4</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>96</v>
@@ -8809,10 +8845,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>96</v>
@@ -8823,10 +8859,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8837,10 +8873,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>3</v>
@@ -8851,10 +8887,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>3</v>
@@ -8865,10 +8901,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>3</v>
@@ -8879,10 +8915,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>231</v>
+        <v>236</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>235</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>96</v>
@@ -8893,10 +8929,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>96</v>
@@ -8907,10 +8943,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>96</v>
@@ -8921,10 +8957,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>3</v>
@@ -8935,10 +8971,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>3</v>
@@ -8949,10 +8985,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>96</v>
@@ -8963,10 +8999,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>96</v>
@@ -8977,24 +9013,24 @@
         <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="11" customFormat="1" ht="17">
+    <row r="38" spans="1:4" s="11" customFormat="1">
       <c r="A38" s="14">
         <v>7</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>259</v>
+        <v>220</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>267</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -9005,10 +9041,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>258</v>
+        <v>222</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>3</v>
@@ -9019,10 +9055,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>96</v>
@@ -9033,10 +9069,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>96</v>
@@ -9047,10 +9083,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>96</v>
@@ -9061,10 +9097,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>96</v>
@@ -9075,10 +9111,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>96</v>
@@ -9089,616 +9125,162 @@
         <v>8</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="14">
-        <v>8</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="14">
-        <v>8</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17">
-      <c r="A48" s="14">
-        <v>9</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="14">
-        <v>9</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17">
-      <c r="A50" s="14">
-        <v>10</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="14">
-        <v>10</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17">
-      <c r="A52" s="14">
-        <v>11</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17">
-      <c r="A53" s="14">
-        <v>11</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="14">
-        <v>12</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="14">
-        <v>12</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="14">
-        <v>13</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="14">
-        <v>13</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="14">
-        <v>13</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="14">
-        <v>15</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="14">
-        <v>15</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="14">
-        <v>16</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="14">
-        <v>16</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="14">
-        <v>17</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="14">
-        <v>17</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="14">
-        <v>18</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="14">
-        <v>18</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17">
-      <c r="A67" s="14">
-        <v>19</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="14">
-        <v>19</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="14">
-        <v>20</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="14">
-        <v>20</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="14">
-        <v>21</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="14">
-        <v>21</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="14">
-        <v>22</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="14">
-        <v>22</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="14">
-        <v>23</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="14">
-        <v>23</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="14">
-        <v>24</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="14">
-        <v>24</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="14">
-        <v>25</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="14">
-        <v>25</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="14">
-        <v>26</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="14">
-        <v>26</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="14">
-        <v>26</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="14">
-        <v>26</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="11" customFormat="1">
-      <c r="A85" s="14">
-        <v>26</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="14">
-        <v>26</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="14">
-        <v>27</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="14">
-        <v>27</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="5"/>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="5"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="5"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="5"/>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="5"/>
+      <c r="C76" s="26"/>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="5"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="5"/>
+      <c r="C78" s="26"/>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="5"/>
+      <c r="C79" s="26"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="5"/>
+      <c r="C80" s="26"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="5"/>
+      <c r="C81" s="26"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="5"/>
+      <c r="C82" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9717,56 +9299,24 @@
     <hyperlink ref="C29" r:id="rId13" xr:uid="{EE73612B-047D-E546-82E4-2520C4312682}"/>
     <hyperlink ref="C34" r:id="rId14" xr:uid="{AADF7D9F-9BC1-874E-966C-8D5DEEC7384F}"/>
     <hyperlink ref="C39" r:id="rId15" xr:uid="{3B830422-E592-7C46-870B-1B503D9984F0}"/>
-    <hyperlink ref="C47" r:id="rId16" xr:uid="{8D35F434-A98D-BE40-A90B-8525E8DC9E72}"/>
-    <hyperlink ref="C46" r:id="rId17" xr:uid="{FDB86116-CFDB-A84C-89DE-EB58F2BD4EBD}"/>
-    <hyperlink ref="C49" r:id="rId18" xr:uid="{939CF4E5-7B7E-8142-BC20-215A07BCCC3F}"/>
-    <hyperlink ref="C55" r:id="rId19" xr:uid="{ADC0E155-EBBB-034A-B5E8-84278DA32094}"/>
-    <hyperlink ref="C58" r:id="rId20" xr:uid="{56EDF8C1-9354-4740-A3C7-7A01F1BFE4FC}"/>
-    <hyperlink ref="C57" r:id="rId21" xr:uid="{90AD9E64-660E-4743-82FC-775E7D82D2D7}"/>
-    <hyperlink ref="C56" r:id="rId22" xr:uid="{1CDB8E2E-0021-6641-9884-A3995A0FCBD4}"/>
-    <hyperlink ref="C54" r:id="rId23" xr:uid="{EA138744-E682-7743-B9CD-B6867A789DE9}"/>
-    <hyperlink ref="C53" r:id="rId24" xr:uid="{8ADD9783-D74D-3B45-B252-E122FB1A9658}"/>
-    <hyperlink ref="C52" r:id="rId25" xr:uid="{1DFF453D-2BCC-CD48-B086-A21AD0DE7B4F}"/>
-    <hyperlink ref="C48" r:id="rId26" xr:uid="{D5BDFF8E-F5E4-0C47-86E9-59B6B857CE7B}"/>
-    <hyperlink ref="C51" r:id="rId27" xr:uid="{868C5192-E558-D241-8CC3-1DEE50D09E47}"/>
-    <hyperlink ref="C60" r:id="rId28" xr:uid="{8E8B5C7F-D4A8-1C4D-B33A-9F6DEF8578E9}"/>
-    <hyperlink ref="C61" r:id="rId29" xr:uid="{A4BAA328-1EA0-B048-B1E5-4C770E844EE4}"/>
-    <hyperlink ref="C62" r:id="rId30" xr:uid="{7E43EB56-CDD8-6F49-8F0B-029A5C789629}"/>
-    <hyperlink ref="C64" r:id="rId31" xr:uid="{F5BD05B6-1165-2C4C-89DA-B15C39AC63DB}"/>
-    <hyperlink ref="C66" r:id="rId32" xr:uid="{772E54CE-E51B-644B-BC81-5F44664A0FFC}"/>
-    <hyperlink ref="C65" r:id="rId33" xr:uid="{768BC822-D06F-2145-95ED-1C4088E4554B}"/>
-    <hyperlink ref="C68" r:id="rId34" xr:uid="{D350241C-15C3-194E-A9FE-F2D8CB10E708}"/>
-    <hyperlink ref="C67" r:id="rId35" xr:uid="{6B7F5AD6-6740-FA4F-9363-B126FB87A9C9}"/>
-    <hyperlink ref="C70" r:id="rId36" xr:uid="{9C5FDD9E-BA0F-DB49-A6BA-CEE16F46BB29}"/>
-    <hyperlink ref="C72" r:id="rId37" xr:uid="{7A78AE25-02C3-2F4C-ABC2-621D7B258A8E}"/>
-    <hyperlink ref="C74" r:id="rId38" xr:uid="{BA6C60C2-E681-574B-AD78-257F65060490}"/>
-    <hyperlink ref="C76" r:id="rId39" xr:uid="{D9481EDE-515F-C141-AAFC-683CE65414C8}"/>
-    <hyperlink ref="C78" r:id="rId40" xr:uid="{0D5FB77C-2EE7-DF47-9B69-080A39D1F272}"/>
-    <hyperlink ref="C80" r:id="rId41" xr:uid="{290184F5-4885-CD4B-B605-35F0A66112DC}"/>
-    <hyperlink ref="C86" r:id="rId42" xr:uid="{28FC281B-6178-A842-B7A7-FF515F26D2FC}"/>
-    <hyperlink ref="C82" r:id="rId43" xr:uid="{49CDC5AF-2DD3-6B4A-869E-9CE5B4C404C1}"/>
-    <hyperlink ref="C83" r:id="rId44" xr:uid="{2D569552-EE6B-ED4F-B626-81FFDE3E668D}"/>
-    <hyperlink ref="C84" r:id="rId45" xr:uid="{328B7ECF-08B5-0641-A005-2EB724A23A3A}"/>
-    <hyperlink ref="C85" r:id="rId46" xr:uid="{9CA2775E-69C2-0B4F-A69D-75CE370173B6}"/>
-    <hyperlink ref="C88" r:id="rId47" xr:uid="{6368C6B8-38FB-F148-88BD-140882FACCF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
-  <dimension ref="A1:E880"/>
+  <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="31" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" style="17" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" style="11" customWidth="1"/>
@@ -9777,42 +9327,88 @@
       <c r="A1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:5" ht="68" customHeight="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="26">
-        <v>43831</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="28">
+        <v>44084</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51">
+      <c r="A3" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="23"/>
+      <c r="B3" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="27">
+        <f>D2+7</f>
+        <v>44091</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34">
+      <c r="A4" s="19">
+        <v>5</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="27">
+        <v>44098</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="19">
+        <v>7</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="27">
+        <f>D4+7</f>
+        <v>44105</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" s="23"/>
@@ -12438,6 +12034,129 @@
     </row>
     <row r="880" spans="3:3">
       <c r="C880" s="23"/>
+    </row>
+    <row r="881" spans="3:3">
+      <c r="C881" s="23"/>
+    </row>
+    <row r="882" spans="3:3">
+      <c r="C882" s="23"/>
+    </row>
+    <row r="883" spans="3:3">
+      <c r="C883" s="23"/>
+    </row>
+    <row r="884" spans="3:3">
+      <c r="C884" s="23"/>
+    </row>
+    <row r="885" spans="3:3">
+      <c r="C885" s="23"/>
+    </row>
+    <row r="886" spans="3:3">
+      <c r="C886" s="23"/>
+    </row>
+    <row r="887" spans="3:3">
+      <c r="C887" s="23"/>
+    </row>
+    <row r="888" spans="3:3">
+      <c r="C888" s="23"/>
+    </row>
+    <row r="889" spans="3:3">
+      <c r="C889" s="23"/>
+    </row>
+    <row r="890" spans="3:3">
+      <c r="C890" s="23"/>
+    </row>
+    <row r="891" spans="3:3">
+      <c r="C891" s="23"/>
+    </row>
+    <row r="892" spans="3:3">
+      <c r="C892" s="23"/>
+    </row>
+    <row r="893" spans="3:3">
+      <c r="C893" s="23"/>
+    </row>
+    <row r="894" spans="3:3">
+      <c r="C894" s="23"/>
+    </row>
+    <row r="895" spans="3:3">
+      <c r="C895" s="23"/>
+    </row>
+    <row r="896" spans="3:3">
+      <c r="C896" s="23"/>
+    </row>
+    <row r="897" spans="3:3">
+      <c r="C897" s="23"/>
+    </row>
+    <row r="898" spans="3:3">
+      <c r="C898" s="23"/>
+    </row>
+    <row r="899" spans="3:3">
+      <c r="C899" s="23"/>
+    </row>
+    <row r="900" spans="3:3">
+      <c r="C900" s="23"/>
+    </row>
+    <row r="901" spans="3:3">
+      <c r="C901" s="23"/>
+    </row>
+    <row r="902" spans="3:3">
+      <c r="C902" s="23"/>
+    </row>
+    <row r="903" spans="3:3">
+      <c r="C903" s="23"/>
+    </row>
+    <row r="904" spans="3:3">
+      <c r="C904" s="23"/>
+    </row>
+    <row r="905" spans="3:3">
+      <c r="C905" s="23"/>
+    </row>
+    <row r="906" spans="3:3">
+      <c r="C906" s="23"/>
+    </row>
+    <row r="907" spans="3:3">
+      <c r="C907" s="23"/>
+    </row>
+    <row r="908" spans="3:3">
+      <c r="C908" s="23"/>
+    </row>
+    <row r="909" spans="3:3">
+      <c r="C909" s="23"/>
+    </row>
+    <row r="910" spans="3:3">
+      <c r="C910" s="23"/>
+    </row>
+    <row r="911" spans="3:3">
+      <c r="C911" s="23"/>
+    </row>
+    <row r="912" spans="3:3">
+      <c r="C912" s="23"/>
+    </row>
+    <row r="913" spans="3:3">
+      <c r="C913" s="23"/>
+    </row>
+    <row r="914" spans="3:3">
+      <c r="C914" s="23"/>
+    </row>
+    <row r="915" spans="3:3">
+      <c r="C915" s="23"/>
+    </row>
+    <row r="916" spans="3:3">
+      <c r="C916" s="23"/>
+    </row>
+    <row r="917" spans="3:3">
+      <c r="C917" s="23"/>
+    </row>
+    <row r="918" spans="3:3">
+      <c r="C918" s="23"/>
+    </row>
+    <row r="919" spans="3:3">
+      <c r="C919" s="23"/>
+    </row>
+    <row r="920" spans="3:3">
+      <c r="C920" s="23"/>
+    </row>
+    <row r="921" spans="3:3">
+      <c r="C921" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12491,10 +12210,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="38">
+      <c r="A5" s="40">
         <v>43709</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -12537,10 +12256,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="38">
+      <c r="A11" s="40">
         <v>43739</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -12591,10 +12310,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="38">
+      <c r="A18" s="40">
         <v>43770</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -12661,10 +12380,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="38">
+      <c r="A27" s="40">
         <v>43800</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="41"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -12747,10 +12466,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="38">
+      <c r="A38" s="40">
         <v>43831</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="41"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -12801,10 +12520,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="38">
+      <c r="A45" s="40">
         <v>43862</v>
       </c>
-      <c r="B45" s="39"/>
+      <c r="B45" s="41"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -12831,10 +12550,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="38">
+      <c r="A49" s="40">
         <v>43891</v>
       </c>
-      <c r="B49" s="39"/>
+      <c r="B49" s="41"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -12909,10 +12628,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="38">
+      <c r="A59" s="40">
         <v>43922</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="41"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -12955,10 +12674,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="38">
+      <c r="A65" s="40">
         <v>43952</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="41"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/introml_website_fall_2020/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/GitHub/fall-2021-introml-autobuild/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD12242E-9FD2-8748-B97A-F2FD7DA2B026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C9043-EF5E-C643-A9D9-E69664EA3258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTROML" sheetId="25" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="220">
   <si>
     <t>Day</t>
   </si>
@@ -317,15 +328,6 @@
     <t>Session</t>
   </si>
   <si>
-    <t>Notebook</t>
-  </si>
-  <si>
-    <t>Python Overview</t>
-  </si>
-  <si>
-    <t>Basic Data Structures</t>
-  </si>
-  <si>
     <t>textbook_logo</t>
   </si>
   <si>
@@ -485,9 +487,6 @@
     <t>Whether or not session/assignment info should be published (0/1).</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/</t>
-  </si>
-  <si>
     <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
   </si>
   <si>
@@ -503,12 +502,6 @@
     <t>https://eurl.io/#KijTiY1Sa</t>
   </si>
   <si>
-    <t>assignments/assignment1/01starter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This introductory assignment introduces the basics of loading files from a variety of formats and updating a number of different types of objects.  It also introduces the concepts of packages. </t>
-  </si>
-  <si>
     <t>Chapter 1: The Machine Learning Landscape</t>
   </si>
   <si>
@@ -524,39 +517,6 @@
     <t xml:space="preserve">https://towardsdatascience.com/getting-started-with-python-environments-using-conda-32e9f2779307 </t>
   </si>
   <si>
-    <t>notebooks/01-intro-python/01-python-overview</t>
-  </si>
-  <si>
-    <t>notebooks/01-intro-python/02-datastructures</t>
-  </si>
-  <si>
-    <t>notebooks/01-intro-python/03-numpy</t>
-  </si>
-  <si>
-    <t>Conditional-Loops</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>Null Values</t>
-  </si>
-  <si>
-    <t>Kaggle Baseline</t>
-  </si>
-  <si>
-    <t>Numpy</t>
-  </si>
-  <si>
-    <t>Pandas</t>
-  </si>
-  <si>
-    <t>notebooks/01-intro-python/04-pandas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaggle </t>
-  </si>
-  <si>
     <t>Chapter 2: End to End Machine Learning Project</t>
   </si>
   <si>
@@ -641,208 +601,222 @@
     <t>Google Drive</t>
   </si>
   <si>
-    <t>notebooks/02-intro-python/01-conditionals-loops</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/02-functions</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/03-null-values</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/04-groupby</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/04-pivottable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groupby </t>
-  </si>
-  <si>
-    <t>Pivot Tables</t>
-  </si>
-  <si>
-    <t>notebooks/02-intro-python/05-kaggle-baseline</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Hands-Machine-Learning-Scikit-Learn-TensorFlow/dp/1492032646/</t>
   </si>
   <si>
-    <t>Video Recording of Class</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=bfb2ae23c30e4151ba55599a4e0e1d8a</t>
-  </si>
-  <si>
     <t>Midterm Exam</t>
   </si>
   <si>
-    <t>This assignment will require you to gain some familiarity with working with a variety of different Python data structures (sets, lists, dictionaries) as well as packages (numpy, pandas)</t>
-  </si>
-  <si>
     <t xml:space="preserve">This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling, includeing merging, aggregation, filtering. Continued introduction to coding includes conditionals, loops, functions, missing values, filtering, group-by.  We will also introduce a basic Kaggle model for the Titantic dataset. </t>
   </si>
   <si>
     <t>This lecture discusses the general strategic impact of data, open data, data encoding, data provenance, data wrangling. Continued introduction to coding includes Numpy and Pandas</t>
   </si>
   <si>
-    <t>assignments/assignment2/hm</t>
-  </si>
-  <si>
-    <t>Video Recording of Class Sec 01</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=508048265d664a6f917a44a9bc67cb25</t>
-  </si>
-  <si>
-    <t>Video Recording of Class Sec 02</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e18980e944fe42aa847c242e4d0d8ab8</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/93fa92484195459490e45719d94d4fe6</t>
-  </si>
-  <si>
-    <t>https://rpi.box.com/s/g3wsswc1gvqxvamkuxee77eb4qugizvj</t>
-  </si>
-  <si>
-    <t>https://rpi.box.com/s/qdd5wlo58f5ludkxmb4yd17mgnyc0sbh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentation  - Section 01 </t>
-  </si>
-  <si>
-    <t>Presentation  - Section 02</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e8ebc605718049ce99e07f066d7cd25f</t>
-  </si>
-  <si>
     <t>More operationalization of Python basics as they relate to data.</t>
   </si>
   <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/7cf2c9cb7fe04c0ba0b4697e96c291dc</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/53d4aef08b534337b8fe077870ee7ec0</t>
-  </si>
-  <si>
     <t>Introduction to visualiation,  APIs, web scraping feature creation, and feature creation/extraction.  The genaral goal is to get students to the point where they are able to start to do some data manipulation and utilize code they haven't created (packages, functions)</t>
   </si>
   <si>
     <t xml:space="preserve">We examine the basics of classess of supervised, unsupervised, reenforcement learning. Also examine overfitting and how cross validation is used for overfitting and how hypterparameters are used to optimize models. </t>
   </si>
   <si>
-    <t>notebooks/03-viz-api-scraper/01-intro-api-twitter</t>
-  </si>
-  <si>
-    <t>TwitterAPIs</t>
-  </si>
-  <si>
-    <t>Web Mining</t>
-  </si>
-  <si>
-    <t>notebooks/03-viz-api-scraper/02-intro-python-webmining</t>
-  </si>
-  <si>
-    <t>notebooks/03-viz-api-scraper/03-visualization-python-seaborn</t>
-  </si>
-  <si>
-    <t>Visualization</t>
-  </si>
-  <si>
-    <t>notebooks/03-viz-api-scraper/04-strings-regular-expressions</t>
-  </si>
-  <si>
-    <t>Regular Expressions</t>
-  </si>
-  <si>
-    <t>notebooks/03-viz-api-scraper/05-features-dummies</t>
-  </si>
-  <si>
-    <t>Feature Dummies</t>
-  </si>
-  <si>
-    <t>notebooks/03-viz-api-scraper/06-matplotlib</t>
-  </si>
-  <si>
-    <t>Matplotlib</t>
-  </si>
-  <si>
-    <t>notebooks/04-intro-modeling/01-neural-networks</t>
-  </si>
-  <si>
-    <t>Neural Networks</t>
-  </si>
-  <si>
-    <t>notebooks/04-intro-modeling/02-train-test-split</t>
-  </si>
-  <si>
-    <t>Train Test Split</t>
-  </si>
-  <si>
-    <t>notebooks/04-intro-modeling/03-intro-logistic-knn</t>
-  </si>
-  <si>
-    <t>Intro Logistic Regression KNN</t>
-  </si>
-  <si>
-    <t>notebooks/04-intro-modeling/04-knn</t>
-  </si>
-  <si>
-    <t>notebooks/04-intro-modeling/05-svm-roc</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>notebooks/book/02_end_to_end_machine_learning_project</t>
-  </si>
-  <si>
-    <t>End to End</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/ceeddcf8fdb54ee9a953ed814b4727ab</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=6deccb8602db4a1984a7a0e727dffbbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This has us create a few different functions and our first simple model. </t>
-  </si>
-  <si>
-    <t>assignments/assignment3/hm</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/rensselaer/ldr.php?RCID=84fd624c95554f8489dfc64d260245df</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/playback/75e8ebaed323473daf4d9c088a767a89</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/recordingservice/sites/rensselaer/recording/play/e210b8b46f824822b383e452c26ff3af</t>
-  </si>
-  <si>
-    <t>Some exercises with visualization and web scraping.</t>
-  </si>
-  <si>
-    <t>assignments/assignment4/hm</t>
-  </si>
-  <si>
-    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/6bd4d10ef7a443838e020218e96144f5</t>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Thurs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Python Basics; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW1</t>
+    </r>
+  </si>
+  <si>
+    <t>No class</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Linear Programming 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Python conditionals, loops, functions, aggregating (continued); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>Python visualization, data manipulation , and feature creation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overview of Modeling; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modeling evaluation; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW4</t>
+    </r>
+  </si>
+  <si>
+    <t>Features and Dimensionality Reduction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regression and Decision Trees; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW5</t>
+    </r>
+  </si>
+  <si>
+    <t>Regression and Decision Trees</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unsupervised Models; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Text and NLP basics; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Project description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Revision; For 6000 level in-class RLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text and NLP </t>
+  </si>
+  <si>
+    <t>Time Series Analysis; Advanced supervised models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced supervised models </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Image Data and ML; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HW7</t>
+    </r>
+  </si>
+  <si>
+    <t>Guest speaker from industry (TBD)</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>Deep Learning – Intro to Neural Nets; CNNs</t>
+  </si>
+  <si>
+    <t>Final Presentations – group 1</t>
+  </si>
+  <si>
+    <t>Final Presentations – group 2</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -914,8 +888,21 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue Light"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,8 +915,14 @@
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -987,12 +980,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,9 +1085,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1077,6 +1106,65 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1392,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016444B-EE05-3D4D-B0A3-3C88CB09CFFF}">
-  <dimension ref="A2:G79"/>
+  <dimension ref="A2:N79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F36"/>
+    <sheetView topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1420,7 +1508,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>95</v>
@@ -1454,10 +1542,10 @@
         <v>Mon</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1478,7 +1566,7 @@
         <v>79</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1">
@@ -1493,10 +1581,10 @@
         <v>Mon</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1514,10 +1602,10 @@
         <v>Tue</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1539,7 +1627,7 @@
         <v>80</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1561,7 +1649,7 @@
         <v>81</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1583,7 +1671,7 @@
         <v>82</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1605,7 +1693,7 @@
         <v>83</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1627,7 +1715,7 @@
         <v>84</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1649,7 +1737,7 @@
         <v>84</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1668,10 +1756,10 @@
         <v>Thu</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1690,10 +1778,10 @@
         <v>Mon</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1712,10 +1800,10 @@
         <v>Thu</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1730,10 +1818,10 @@
         <v>Mon</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1751,10 +1839,10 @@
         <v>Thu</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1773,10 +1861,10 @@
         <v>Mon</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1798,7 +1886,7 @@
         <v>85</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1817,10 +1905,10 @@
         <v>Mon</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1839,10 +1927,10 @@
         <v>Thu</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1864,7 +1952,7 @@
         <v>85</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1883,10 +1971,10 @@
         <v>Thu</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1905,10 +1993,10 @@
         <v>Mon</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1930,7 +2018,7 @@
         <v>86</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1952,7 +2040,7 @@
         <v>86</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1974,7 +2062,7 @@
         <v>88</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1989,10 +2077,10 @@
         <v>Mon</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2013,7 +2101,7 @@
         <v>87</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2031,13 +2119,13 @@
         <v>Mon</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="11">
         <v>14</v>
       </c>
@@ -2053,13 +2141,13 @@
         <v>Thu</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="11">
         <v>15</v>
       </c>
@@ -2078,10 +2166,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="11">
         <v>15</v>
       </c>
@@ -2097,279 +2185,1065 @@
         <v>Thu</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="11"/>
       <c r="C36" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:14">
       <c r="A37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:14">
       <c r="A38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:14">
       <c r="A39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:14">
       <c r="A40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:14" ht="17" thickBot="1">
       <c r="A41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:14" ht="21" thickBot="1">
       <c r="A42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="C42" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42" s="43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="120" thickBot="1">
       <c r="A43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="C43" s="44">
+        <v>1</v>
+      </c>
+      <c r="D43" s="44">
+        <v>1</v>
+      </c>
+      <c r="E43" s="45">
+        <f>M43</f>
+        <v>44438</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="47">
+        <v>44438</v>
+      </c>
+      <c r="N43" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="52" thickBot="1">
       <c r="A44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="C44" s="44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="45">
+        <f t="shared" ref="E44:E71" si="3">M44</f>
+        <v>44441</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="47">
+        <v>44441</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18" thickBot="1">
       <c r="A45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="C45" s="44">
+        <v>2</v>
+      </c>
+      <c r="D45" s="44">
+        <v>3</v>
+      </c>
+      <c r="E45" s="45">
+        <f t="shared" si="3"/>
+        <v>44445</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="50">
+        <v>44445</v>
+      </c>
+      <c r="N45" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="103" thickBot="1">
       <c r="A46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="C46" s="44">
+        <v>2</v>
+      </c>
+      <c r="D46" s="44">
+        <v>4</v>
+      </c>
+      <c r="E46" s="45">
+        <f t="shared" si="3"/>
+        <v>44446</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="47">
+        <v>44446</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="137" thickBot="1">
       <c r="A47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="C47" s="44">
+        <v>2</v>
+      </c>
+      <c r="D47" s="44">
+        <v>5</v>
+      </c>
+      <c r="E47" s="45">
+        <f t="shared" si="3"/>
+        <v>44448</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="47">
+        <v>44448</v>
+      </c>
+      <c r="N47" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="120" thickBot="1">
       <c r="A48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="C48" s="44">
+        <v>3</v>
+      </c>
+      <c r="D48" s="44">
+        <v>6</v>
+      </c>
+      <c r="E48" s="45">
+        <f t="shared" si="3"/>
+        <v>44452</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="47">
+        <v>44452</v>
+      </c>
+      <c r="N48" s="48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="120" thickBot="1">
       <c r="A49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="C49" s="44">
+        <v>3</v>
+      </c>
+      <c r="D49" s="44">
+        <v>7</v>
+      </c>
+      <c r="E49" s="45">
+        <f t="shared" si="3"/>
+        <v>44455</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="47">
+        <v>44455</v>
+      </c>
+      <c r="N49" s="48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17" thickBot="1">
       <c r="A50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="C50" s="44">
+        <v>4</v>
+      </c>
+      <c r="D50" s="44">
+        <v>8</v>
+      </c>
+      <c r="E50" s="45">
+        <f t="shared" si="3"/>
+        <v>44459</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="47">
+        <v>44459</v>
+      </c>
+      <c r="N50" s="52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17" thickBot="1">
       <c r="A51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="C51" s="44">
+        <v>4</v>
+      </c>
+      <c r="D51" s="44">
+        <v>9</v>
+      </c>
+      <c r="E51" s="45">
+        <f t="shared" si="3"/>
+        <v>44462</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="47">
+        <v>44462</v>
+      </c>
+      <c r="N51" s="52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="52" thickBot="1">
       <c r="A52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="C52" s="44">
+        <v>5</v>
+      </c>
+      <c r="D52" s="44">
+        <v>10</v>
+      </c>
+      <c r="E52" s="45">
+        <f t="shared" si="3"/>
+        <v>44466</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="47">
+        <v>44466</v>
+      </c>
+      <c r="N52" s="48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="86" thickBot="1">
       <c r="A53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="C53" s="44">
+        <v>5</v>
+      </c>
+      <c r="D53" s="44">
+        <v>11</v>
+      </c>
+      <c r="E53" s="45">
+        <f t="shared" si="3"/>
+        <v>44469</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="47">
+        <v>44469</v>
+      </c>
+      <c r="N53" s="48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="69" thickBot="1">
       <c r="A54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="C54" s="44">
+        <v>6</v>
+      </c>
+      <c r="D54" s="44">
+        <v>12</v>
+      </c>
+      <c r="E54" s="45">
+        <f t="shared" si="3"/>
+        <v>44473</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="47">
+        <v>44473</v>
+      </c>
+      <c r="N54" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="69" thickBot="1">
       <c r="A55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="C55" s="44">
+        <v>6</v>
+      </c>
+      <c r="D55" s="44">
+        <v>13</v>
+      </c>
+      <c r="E55" s="45">
+        <f t="shared" si="3"/>
+        <v>44476</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="47">
+        <v>44476</v>
+      </c>
+      <c r="N55" s="48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="18" thickBot="1">
       <c r="A56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="C56" s="44">
+        <v>7</v>
+      </c>
+      <c r="D56" s="44">
+        <v>14</v>
+      </c>
+      <c r="E56" s="45">
+        <f t="shared" si="3"/>
+        <v>44480</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="50">
+        <v>44480</v>
+      </c>
+      <c r="N56" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="52" thickBot="1">
       <c r="A57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="C57" s="44">
+        <v>7</v>
+      </c>
+      <c r="D57" s="44">
+        <v>15</v>
+      </c>
+      <c r="E57" s="45">
+        <f t="shared" si="3"/>
+        <v>44483</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="47">
+        <v>44483</v>
+      </c>
+      <c r="N57" s="48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="35" thickBot="1">
       <c r="A58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="C58" s="44">
+        <v>8</v>
+      </c>
+      <c r="D58" s="44">
+        <v>16</v>
+      </c>
+      <c r="E58" s="45">
+        <f t="shared" si="3"/>
+        <v>44487</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="47">
+        <v>44487</v>
+      </c>
+      <c r="N58" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="69" thickBot="1">
       <c r="A59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="C59" s="44">
+        <v>8</v>
+      </c>
+      <c r="D59" s="44">
+        <v>17</v>
+      </c>
+      <c r="E59" s="45">
+        <f t="shared" si="3"/>
+        <v>44490</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="47">
+        <v>44490</v>
+      </c>
+      <c r="N59" s="48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="69" thickBot="1">
       <c r="A60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="C60" s="44">
+        <v>9</v>
+      </c>
+      <c r="D60" s="44">
+        <v>18</v>
+      </c>
+      <c r="E60" s="45">
+        <f t="shared" si="3"/>
+        <v>44494</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="47">
+        <v>44494</v>
+      </c>
+      <c r="N60" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="35" thickBot="1">
       <c r="A61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="C61" s="44">
+        <v>9</v>
+      </c>
+      <c r="D61" s="44">
+        <v>19</v>
+      </c>
+      <c r="E61" s="45">
+        <f t="shared" si="3"/>
+        <v>44497</v>
+      </c>
+      <c r="F61" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="53">
+        <v>44497</v>
+      </c>
+      <c r="N61" s="54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="35" thickBot="1">
       <c r="A62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="C62" s="44">
+        <v>10</v>
+      </c>
+      <c r="D62" s="44">
+        <v>20</v>
+      </c>
+      <c r="E62" s="45">
+        <f t="shared" si="3"/>
+        <v>44501</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="47">
+        <v>44501</v>
+      </c>
+      <c r="N62" s="48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="86" thickBot="1">
       <c r="A63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="C63" s="44">
+        <v>10</v>
+      </c>
+      <c r="D63" s="44">
+        <v>21</v>
+      </c>
+      <c r="E63" s="45">
+        <f t="shared" si="3"/>
+        <v>44504</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="47">
+        <v>44504</v>
+      </c>
+      <c r="N63" s="48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="52" thickBot="1">
       <c r="A64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="C64" s="44">
+        <v>11</v>
+      </c>
+      <c r="D64" s="44">
+        <v>22</v>
+      </c>
+      <c r="E64" s="45">
+        <f t="shared" si="3"/>
+        <v>44508</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="47">
+        <v>44508</v>
+      </c>
+      <c r="N64" s="48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="52" thickBot="1">
       <c r="A65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="C65" s="44">
+        <v>11</v>
+      </c>
+      <c r="D65" s="44">
+        <v>23</v>
+      </c>
+      <c r="E65" s="45">
+        <f t="shared" si="3"/>
+        <v>44511</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="47">
+        <v>44511</v>
+      </c>
+      <c r="N65" s="48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="86" thickBot="1">
       <c r="A66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="C66" s="44">
+        <v>12</v>
+      </c>
+      <c r="D66" s="44">
+        <v>24</v>
+      </c>
+      <c r="E66" s="45">
+        <f t="shared" si="3"/>
+        <v>44515</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="47">
+        <v>44515</v>
+      </c>
+      <c r="N66" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="35" thickBot="1">
       <c r="A67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="C67" s="44">
+        <v>12</v>
+      </c>
+      <c r="D67" s="44">
+        <v>25</v>
+      </c>
+      <c r="E67" s="45">
+        <f t="shared" si="3"/>
+        <v>44518</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="47">
+        <v>44518</v>
+      </c>
+      <c r="N67" s="48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="86" thickBot="1">
       <c r="A68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="C68" s="44">
+        <v>13</v>
+      </c>
+      <c r="D68" s="44">
+        <v>26</v>
+      </c>
+      <c r="E68" s="45">
+        <f t="shared" si="3"/>
+        <v>44522</v>
+      </c>
+      <c r="F68" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="47">
+        <v>44522</v>
+      </c>
+      <c r="N68" s="48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="18" thickBot="1">
       <c r="A69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="C69" s="44">
+        <v>13</v>
+      </c>
+      <c r="D69" s="44">
+        <v>27</v>
+      </c>
+      <c r="E69" s="45">
+        <f t="shared" si="3"/>
+        <v>44525</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="50">
+        <v>44525</v>
+      </c>
+      <c r="N69" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="69" thickBot="1">
       <c r="A70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="C70" s="44">
+        <v>14</v>
+      </c>
+      <c r="D70" s="44">
+        <v>28</v>
+      </c>
+      <c r="E70" s="45">
+        <f t="shared" si="3"/>
+        <v>44529</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="47">
+        <v>44529</v>
+      </c>
+      <c r="N70" s="48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="69" thickBot="1">
       <c r="A71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="C71" s="44">
+        <v>15</v>
+      </c>
+      <c r="D71" s="44">
+        <v>29</v>
+      </c>
+      <c r="E71" s="45">
+        <f t="shared" si="3"/>
+        <v>44532</v>
+      </c>
+      <c r="F71" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="47">
+        <v>44532</v>
+      </c>
+      <c r="N71" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="25"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="25"/>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="25"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="25"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="25"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="25"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="25"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -2379,6 +3253,35 @@
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{23D8F992-D81F-F747-9EEA-10298202C981}"/>
     <hyperlink ref="D6:D35" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{433848AE-9CD2-2045-A1F7-6F238627BAC1}"/>
+    <hyperlink ref="F43" r:id="rId3" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{7097FE78-F078-0D42-B000-6AD55A90E82F}"/>
+    <hyperlink ref="F44" r:id="rId4" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{25FA0CD0-AA2E-8042-98FA-C231955FA042}"/>
+    <hyperlink ref="F45" r:id="rId5" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{F22F2EF3-0A5B-8D4C-9CCF-19C07A3AE161}"/>
+    <hyperlink ref="F47" r:id="rId6" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{68D6AF04-EB65-B44D-97FB-0B080EB759C0}"/>
+    <hyperlink ref="F48" r:id="rId7" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{49074EDB-2914-DC42-87FF-3A42B8F4AD83}"/>
+    <hyperlink ref="F49" r:id="rId8" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{252A8F39-6CDE-6445-95BE-9FD2D07A9EA3}"/>
+    <hyperlink ref="F50" r:id="rId9" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{4015BC98-E65A-9F43-9060-60A9419E99DA}"/>
+    <hyperlink ref="F51" r:id="rId10" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{C5F5EB8E-92F7-794F-9F98-CA234F0ECF96}"/>
+    <hyperlink ref="F52" r:id="rId11" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{B6BD1DA2-7D19-E343-A72D-DDB193B150DF}"/>
+    <hyperlink ref="F53" r:id="rId12" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{1A3E665C-6CB3-EF4E-BE72-AC4972834769}"/>
+    <hyperlink ref="F54" r:id="rId13" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{9D87605E-5567-E94B-8D59-A66C4410735C}"/>
+    <hyperlink ref="F55" r:id="rId14" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{06AB4588-60C4-C840-9DAF-7930B89B484A}"/>
+    <hyperlink ref="F56" r:id="rId15" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{F792687D-8E0A-884A-86DC-917DA348DD65}"/>
+    <hyperlink ref="F57" r:id="rId16" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{28A1234E-81BD-9642-BAF6-48A3C20CB6B7}"/>
+    <hyperlink ref="F58" r:id="rId17" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{DF28BD69-D860-0B4C-9730-19C04C76CF00}"/>
+    <hyperlink ref="F59" r:id="rId18" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{2ED62BEE-6C7E-8E4B-881F-5870EEAE2398}"/>
+    <hyperlink ref="F60" r:id="rId19" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{AC1D1D5C-267B-234B-A5DA-1790007BFB5F}"/>
+    <hyperlink ref="F61" r:id="rId20" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{46C687D3-E1B6-4C41-9E40-695A7D0B65BF}"/>
+    <hyperlink ref="F62" r:id="rId21" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{3DC7F794-F959-F04E-BE18-C99819338E05}"/>
+    <hyperlink ref="F63" r:id="rId22" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{AE8805CF-6710-8946-8FD1-D57B4F8118BA}"/>
+    <hyperlink ref="F64" r:id="rId23" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{B9A3E0BC-85E2-8A4D-8539-75E0D9984AB0}"/>
+    <hyperlink ref="F65" r:id="rId24" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{1253A1BD-5669-B54A-BB55-14906D814012}"/>
+    <hyperlink ref="F66" r:id="rId25" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{4C55278B-1F7D-8144-8F55-548FA1C8106D}"/>
+    <hyperlink ref="F67" r:id="rId26" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{46739E62-D36C-B74B-928D-F5E323FE7288}"/>
+    <hyperlink ref="F68" r:id="rId27" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{0FD94595-677B-1646-9FDD-9CC0C61F56D0}"/>
+    <hyperlink ref="F69" r:id="rId28" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{8D2F970C-658D-BA4C-B3DC-27E5C0587FA1}"/>
+    <hyperlink ref="F70" r:id="rId29" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{FCD54A4B-B669-5148-BD15-8F4534139DBD}"/>
+    <hyperlink ref="F71" r:id="rId30" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{30A1313E-E8B2-AD46-AD7E-433DF22F0F22}"/>
+    <hyperlink ref="F72" r:id="rId31" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{D38CFB54-9535-7B4F-B4E9-74D671A5981A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2396,12 +3299,12 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2434,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2444,36 +3347,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V921"/>
+  <dimension ref="A1:G921"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="60" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="19" customWidth="1"/>
     <col min="5" max="5" width="32.1640625" style="17" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="19">
       <c r="A1" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="58" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -2488,41 +3390,40 @@
       <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="27">
-        <v>44074</v>
+      <c r="C2" s="61">
+        <v>44438</v>
       </c>
       <c r="D2" s="16" t="str">
         <f>TEXT(C2,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.5" customHeight="1">
+    <row r="3" spans="1:7" ht="15.5" customHeight="1">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="27">
-        <v>44077</v>
+      <c r="C3" s="61">
+        <v>44441</v>
       </c>
       <c r="D3" s="16" t="str">
         <f t="shared" ref="D3:D32" si="0">TEXT(C3,"ddd")</f>
@@ -2531,58 +3432,58 @@
       <c r="E3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>217</v>
+      <c r="F3" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:7">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="27">
-        <v>44081</v>
+      <c r="C4" s="61">
+        <v>44445</v>
       </c>
       <c r="D4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34">
       <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="27">
-        <v>44082</v>
+      <c r="C5" s="61">
+        <v>44446</v>
       </c>
       <c r="D5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>139</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2590,8 +3491,8 @@
         <f t="shared" ref="B6:B26" si="1">B5+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="27">
-        <v>44084</v>
+      <c r="C6" s="61">
+        <v>44448</v>
       </c>
       <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2601,13 +3502,13 @@
         <v>80</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>191</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2615,8 +3516,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="27">
-        <v>44088</v>
+      <c r="C7" s="61">
+        <v>44452</v>
       </c>
       <c r="D7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2626,13 +3527,13 @@
         <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="68">
+        <v>191</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -2640,8 +3541,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="27">
-        <v>44091</v>
+      <c r="C8" s="61">
+        <v>44455</v>
       </c>
       <c r="D8" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2651,13 +3552,13 @@
         <v>82</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="68">
+        <v>192</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -2665,8 +3566,8 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="27">
-        <v>44095</v>
+      <c r="C9" s="61">
+        <v>44459</v>
       </c>
       <c r="D9" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2676,13 +3577,13 @@
         <v>83</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="51">
+        <v>192</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -2690,8 +3591,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="27">
-        <v>44098</v>
+      <c r="C10" s="61">
+        <v>44462</v>
       </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2700,29 +3601,14 @@
       <c r="E10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-    </row>
-    <row r="11" spans="1:22" ht="51">
+      <c r="F10" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -2730,8 +3616,8 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="27">
-        <v>44102</v>
+      <c r="C11" s="61">
+        <v>44466</v>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2740,29 +3626,14 @@
       <c r="E11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="F11" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="11">
         <v>5</v>
       </c>
@@ -2770,39 +3641,24 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="27">
-        <v>44105</v>
+      <c r="C12" s="61">
+        <v>44469</v>
       </c>
       <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="5">
+        <v>140</v>
+      </c>
+      <c r="G12" s="11">
         <v>0</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="11">
         <v>6</v>
       </c>
@@ -2810,39 +3666,24 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C13" s="27">
-        <v>44109</v>
+      <c r="C13" s="61">
+        <v>44473</v>
       </c>
       <c r="D13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="5">
+        <v>140</v>
+      </c>
+      <c r="G13" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -2850,115 +3691,70 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C14" s="27">
-        <v>44112</v>
+      <c r="C14" s="61">
+        <v>44476</v>
       </c>
       <c r="D14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="5">
+        <v>140</v>
+      </c>
+      <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="11">
         <v>7</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="27">
-        <v>44116</v>
+      <c r="C15" s="61">
+        <v>44480</v>
       </c>
       <c r="D15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="5">
+        <v>140</v>
+      </c>
+      <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="11">
         <v>7</v>
       </c>
       <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="27">
-        <v>44119</v>
+      <c r="C16" s="61">
+        <v>44483</v>
       </c>
       <c r="D16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="5">
+        <v>140</v>
+      </c>
+      <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="1:22">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="11">
         <v>8</v>
       </c>
@@ -2966,39 +3762,24 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="27">
-        <v>44123</v>
+      <c r="C17" s="61">
+        <v>44487</v>
       </c>
       <c r="D17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="5">
+        <v>140</v>
+      </c>
+      <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="11">
         <v>8</v>
       </c>
@@ -3006,39 +3787,24 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="27">
-        <v>44126</v>
+      <c r="C18" s="61">
+        <v>44490</v>
       </c>
       <c r="D18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="5">
+        <v>140</v>
+      </c>
+      <c r="G18" s="11">
         <v>0</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-    </row>
-    <row r="19" spans="1:22">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="11">
         <v>9</v>
       </c>
@@ -3046,39 +3812,24 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="27">
-        <v>44130</v>
+      <c r="C19" s="61">
+        <v>44494</v>
       </c>
       <c r="D19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="5">
+        <v>140</v>
+      </c>
+      <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-    </row>
-    <row r="20" spans="1:22">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="11">
         <v>9</v>
       </c>
@@ -3086,8 +3837,8 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="27">
-        <v>44133</v>
+      <c r="C20" s="61">
+        <v>44497</v>
       </c>
       <c r="D20" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3097,28 +3848,13 @@
         <v>85</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="5">
+        <v>140</v>
+      </c>
+      <c r="G20" s="11">
         <v>0</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="11">
         <v>10</v>
       </c>
@@ -3126,8 +3862,8 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="27">
-        <v>44137</v>
+      <c r="C21" s="61">
+        <v>44501</v>
       </c>
       <c r="D21" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3137,28 +3873,13 @@
         <v>85</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="5">
+        <v>140</v>
+      </c>
+      <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-    </row>
-    <row r="22" spans="1:22">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="11">
         <v>10</v>
       </c>
@@ -3166,39 +3887,24 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="27">
-        <v>44140</v>
+      <c r="C22" s="61">
+        <v>44504</v>
       </c>
       <c r="D22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="5">
+        <v>140</v>
+      </c>
+      <c r="G22" s="11">
         <v>0</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-    </row>
-    <row r="23" spans="1:22">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="11">
         <v>11</v>
       </c>
@@ -3206,39 +3912,24 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="27">
-        <v>44144</v>
+      <c r="C23" s="61">
+        <v>44508</v>
       </c>
       <c r="D23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="5">
+        <v>140</v>
+      </c>
+      <c r="G23" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="11">
         <v>11</v>
       </c>
@@ -3246,8 +3937,8 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C24" s="27">
-        <v>44147</v>
+      <c r="C24" s="61">
+        <v>44511</v>
       </c>
       <c r="D24" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3257,28 +3948,13 @@
         <v>86</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="5">
+        <v>140</v>
+      </c>
+      <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-    </row>
-    <row r="25" spans="1:22">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="11">
         <v>12</v>
       </c>
@@ -3286,8 +3962,8 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C25" s="27">
-        <v>44151</v>
+      <c r="C25" s="61">
+        <v>44515</v>
       </c>
       <c r="D25" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3297,28 +3973,13 @@
         <v>86</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="5">
+        <v>140</v>
+      </c>
+      <c r="G25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-    </row>
-    <row r="26" spans="1:22">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="11">
         <v>12</v>
       </c>
@@ -3326,8 +3987,8 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C26" s="27">
-        <v>44154</v>
+      <c r="C26" s="61">
+        <v>44518</v>
       </c>
       <c r="D26" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3337,73 +3998,43 @@
         <v>88</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="5">
+        <v>140</v>
+      </c>
+      <c r="G26" s="11">
         <v>0</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-    </row>
-    <row r="27" spans="1:22">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="11">
         <v>13</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="27">
-        <v>44158</v>
+      <c r="C27" s="61">
+        <v>44522</v>
       </c>
       <c r="D27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="5">
+        <v>140</v>
+      </c>
+      <c r="G27" s="11">
         <v>0</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-    </row>
-    <row r="28" spans="1:22">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="11">
         <v>13</v>
       </c>
       <c r="B28" s="11">
         <v>24</v>
       </c>
-      <c r="C28" s="27">
-        <v>44161</v>
+      <c r="C28" s="61">
+        <v>44525</v>
       </c>
       <c r="D28" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3413,67 +4044,37 @@
         <v>87</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="5">
+        <v>140</v>
+      </c>
+      <c r="G28" s="11">
         <v>0</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="11">
         <v>14</v>
       </c>
       <c r="B29" s="11">
         <v>25</v>
       </c>
-      <c r="C29" s="27">
-        <v>44165</v>
+      <c r="C29" s="61">
+        <v>44529</v>
       </c>
       <c r="D29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="5">
+        <v>140</v>
+      </c>
+      <c r="G29" s="11">
         <v>0</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-    </row>
-    <row r="30" spans="1:22">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="11">
         <v>14</v>
       </c>
@@ -3481,39 +4082,24 @@
         <f t="shared" ref="B30:B32" si="2">B29+1</f>
         <v>26</v>
       </c>
-      <c r="C30" s="27">
-        <v>44168</v>
+      <c r="C30" s="61">
+        <v>44532</v>
       </c>
       <c r="D30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="5">
+        <v>140</v>
+      </c>
+      <c r="G30" s="11">
         <v>0</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-    </row>
-    <row r="31" spans="1:22">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="11">
         <v>15</v>
       </c>
@@ -3521,39 +4107,22 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="C31" s="27">
-        <v>44172</v>
-      </c>
+      <c r="C31" s="58"/>
       <c r="D31" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Sat</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="5">
+        <v>140</v>
+      </c>
+      <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-    </row>
-    <row r="32" spans="1:22">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="11">
         <v>15</v>
       </c>
@@ -3561,143 +4130,111 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C32" s="27">
-        <v>44175</v>
-      </c>
+      <c r="C32" s="58"/>
       <c r="D32" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sat</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="5">
+        <v>140</v>
+      </c>
+      <c r="G32" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-    </row>
-    <row r="33" spans="1:22">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="11">
         <v>17</v>
       </c>
       <c r="B33" s="11">
         <v>29</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="28"/>
       <c r="E33" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="5">
+        <v>140</v>
+      </c>
+      <c r="G33" s="11">
         <v>0</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-    </row>
-    <row r="34" spans="1:22">
+    </row>
+    <row r="34" spans="1:7">
       <c r="D34" s="20"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:7">
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:7">
       <c r="D36" s="20"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:7">
       <c r="D37" s="20"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:7">
       <c r="D38" s="20"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:7">
       <c r="D39" s="20"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:7">
       <c r="D40" s="20"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:7">
       <c r="D41" s="20"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:7">
       <c r="D42" s="20"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:7">
       <c r="D43" s="20"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:7">
       <c r="D44" s="20"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:7">
       <c r="D45" s="20"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:7">
       <c r="D46" s="20"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:7">
       <c r="D47" s="20"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:7">
       <c r="D48" s="20"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -8070,7 +8607,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{3B3B064A-CAD1-F04D-9E76-F64F4182351D}"/>
-    <hyperlink ref="D3:D32" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{E61C8CFB-3A62-8540-801C-F724904595E7}"/>
+    <hyperlink ref="D3:D30" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{E61C8CFB-3A62-8540-801C-F724904595E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -8101,13 +8638,13 @@
         <v>95</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8115,10 +8652,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -8127,10 +8664,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -8141,10 +8678,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
@@ -8155,304 +8692,304 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>10</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>194</v>
+      <c r="B19" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>12</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>196</v>
+      <c r="B20" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>14</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>197</v>
+      <c r="B21" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>16</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>198</v>
+      <c r="B22" s="33" t="s">
+        <v>181</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>17</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>199</v>
+      <c r="B23" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>22</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>200</v>
+      <c r="B24" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>21</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>201</v>
+      <c r="B25" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="33">
+      <c r="A26" s="32">
         <v>22</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>202</v>
+      <c r="B26" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -8492,9 +9029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -8509,630 +9046,235 @@
         <v>95</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="19">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="14"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:4" s="11" customFormat="1">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="14"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:4" s="11" customFormat="1">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="14">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" ht="17">
-      <c r="A8" s="14">
-        <v>2</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" s="11" customFormat="1">
-      <c r="A9" s="14">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:4" s="11" customFormat="1">
-      <c r="A10" s="14">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:4" s="11" customFormat="1">
-      <c r="A11" s="14">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:4" s="11" customFormat="1">
-      <c r="A12" s="14">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="11" customFormat="1" ht="17">
-      <c r="A13" s="14">
-        <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="11" customFormat="1" ht="17">
-      <c r="A14" s="14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A12" s="14"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14">
-        <v>3</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1">
-      <c r="A16" s="14">
-        <v>3</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14">
-        <v>4</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17">
-      <c r="A19" s="14">
-        <v>4</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17">
-      <c r="A20" s="14">
-        <v>4</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17">
-      <c r="A21" s="14">
-        <v>4</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17">
-      <c r="A22" s="14">
-        <v>4</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17">
-      <c r="A23" s="14">
-        <v>4</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17">
-      <c r="A24" s="14">
-        <v>4</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17">
-      <c r="A25" s="14">
-        <v>4</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="25"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="25"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="33"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="33"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="5"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="14">
-        <v>4</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="14">
-        <v>4</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" s="11" customFormat="1">
-      <c r="A28" s="14">
-        <v>5</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A28" s="14"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="14">
-        <v>5</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="18">
-      <c r="A30" s="14">
-        <v>6</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17">
-      <c r="A31" s="14">
-        <v>6</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" ht="17">
-      <c r="A32" s="14">
-        <v>6</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="11" customFormat="1" ht="17">
-      <c r="A33" s="14">
-        <v>6</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="5"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" s="11" customFormat="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" s="11" customFormat="1">
+      <c r="A33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="14">
-        <v>6</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17">
-      <c r="A35" s="14">
-        <v>7</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17">
-      <c r="A36" s="14">
-        <v>7</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17">
-      <c r="A37" s="14">
-        <v>7</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="5"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="5"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="5"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" s="11" customFormat="1">
-      <c r="A38" s="14">
-        <v>7</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="11" customFormat="1" ht="17">
-      <c r="A39" s="14">
-        <v>7</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17">
-      <c r="A40" s="14">
-        <v>8</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17">
-      <c r="A41" s="14">
-        <v>8</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17">
-      <c r="A42" s="14">
-        <v>8</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17">
-      <c r="A43" s="14">
-        <v>8</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17">
-      <c r="A44" s="14">
-        <v>8</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17">
-      <c r="A45" s="14">
-        <v>8</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A38" s="14"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" s="11" customFormat="1">
+      <c r="A39" s="14"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="5"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="5"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" s="5"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="5"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="5"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="5"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4">
       <c r="B46" s="5"/>
@@ -9283,25 +9425,8 @@
       <c r="C82" s="26"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" display="https://www.kaggle.com/" xr:uid="{C51D788E-1DB5-E647-8289-6790BE830D33}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{DEF38AA0-8861-7343-86EC-2B9500980D4A}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2F41828B-F2A2-4149-BD2E-960C1709BE19}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{312DF1A7-CF11-6D4C-975B-40ACDAAFD465}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{BECE3545-1BA3-8846-85F8-9058621FE89A}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{B7351C98-8228-EB43-B620-0D9F622B962E}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{F9DD2AE6-D6CD-7543-B59E-36D6643F5156}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{B7E2A735-3AE5-314D-8B30-AA26F372366A}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{FAC20C22-B184-C64B-960D-C669F457D683}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{FF2F4A37-04D6-1E42-B3EB-541E31B2F877}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{DDC56E95-2823-7A42-A58E-F236414CB5B2}"/>
-    <hyperlink ref="C26" r:id="rId12" xr:uid="{C90E3117-9B7D-7743-B508-28DFF39F6285}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{EE73612B-047D-E546-82E4-2520C4312682}"/>
-    <hyperlink ref="C34" r:id="rId14" xr:uid="{AADF7D9F-9BC1-874E-966C-8D5DEEC7384F}"/>
-    <hyperlink ref="C39" r:id="rId15" xr:uid="{3B830422-E592-7C46-870B-1B503D9984F0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9309,8 +9434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E921"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9328,87 +9453,49 @@
         <v>95</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="28">
-        <v>44084</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51">
-      <c r="A3" s="19">
+      <c r="B2" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="61">
+        <v>43831</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="27">
-        <f>D2+7</f>
-        <v>44091</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34">
-      <c r="A4" s="19">
-        <v>5</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="27">
-        <v>44098</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17">
-      <c r="A5" s="19">
-        <v>7</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="27">
-        <f>D4+7</f>
-        <v>44105</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>96</v>
-      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="34"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="34"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="22"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" s="23"/>
@@ -12210,10 +12297,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="40">
+      <c r="A5" s="39">
         <v>43709</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -12256,10 +12343,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <v>43739</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -12310,10 +12397,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="40">
+      <c r="A18" s="39">
         <v>43770</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -12380,10 +12467,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="40">
+      <c r="A27" s="39">
         <v>43800</v>
       </c>
-      <c r="B27" s="41"/>
+      <c r="B27" s="40"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -12466,10 +12553,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="40">
+      <c r="A38" s="39">
         <v>43831</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="40"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -12520,10 +12607,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="40">
+      <c r="A45" s="39">
         <v>43862</v>
       </c>
-      <c r="B45" s="41"/>
+      <c r="B45" s="40"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -12550,10 +12637,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="40">
+      <c r="A49" s="39">
         <v>43891</v>
       </c>
-      <c r="B49" s="41"/>
+      <c r="B49" s="40"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -12628,10 +12715,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="40">
+      <c r="A59" s="39">
         <v>43922</v>
       </c>
-      <c r="B59" s="41"/>
+      <c r="B59" s="40"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -12674,10 +12761,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="40">
+      <c r="A65" s="39">
         <v>43952</v>
       </c>
-      <c r="B65" s="41"/>
+      <c r="B65" s="40"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
@@ -13830,7 +13917,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="7" t="e">
         <f>#REF!</f>
@@ -13839,7 +13926,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="7" t="e">
         <f>#REF!</f>
